--- a/webアプリ作成/Git使用手順.xlsx
+++ b/webアプリ作成/Git使用手順.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="コミット・プッシュ手順" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -17,6 +17,110 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">◆初期設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指定したローカルフォルダからファイルをコミット、プッシュするにあたり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期設定として以下のコマンドを実行する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  git config --global user.email "you@example.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  git config --global user.name "Your Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※認証のための初期設定？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆変更ファイルをステージに追加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git add . 　　　　　　: 全ての変更ファイルをステージに追加 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git add ファイル名　  : 指定ファイルのみ ステージに追加 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆git addの取り消し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git reset 　　　　　　:  git addを取り消し（全ファイル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git reset ファイル名　: git addを取り消し（指定ファイル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆コミット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git commit -m "コミットメッセージ"   : ローカルリポジトリにコミット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git commit    : エディタが起動し、詳細なコミットメッセージを作成できる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　　　　 メッセージを入力し、エディタを終了 →　コミットを完了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　　　　 メッセージを入力せず、エディタを終了 →　コミットを中止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆git commitの取り消し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・コミットメッセージの修正</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git commit --amend -m "コミットメッセージ"   　　: 直前のコミットのコミットメッセージを修正</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git commit --amend　　: エディタが起動し、詳細なコミットメッセージを作成できる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    　　　　　　　　　     メッセージを入力し、エディタを終了 →　修正を完了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　　　　　　         メッセージを入力せず、エディタを終了 →　修正を中止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・git commitの取り消し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git reset --soft コミットID     : commitのみ取り消し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git reset --mixed コミットID    : commit、addを取り消し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git reset コミットID            : commit、addを取り消し（mixedと同じ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git reset --hard コミットID     : commit、addを取り消し、ワークツリーも修正</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※コミットIDはgit logで調べられる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　直前のコミットの場合は、HEAD で指定すればOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆プッシュ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git push -u origin master    　　 : originリポジトリのmasterブランチにpush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git push -u origin ブランチ名      : originリポジトリの指定ブランチにpush</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,25 +154,86 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -99,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -108,7 +273,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -121,6 +342,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -129,45 +410,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D29"/>
+  <dimension ref="B2:AM51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE25" activeCellId="0" sqref="AE25"/>
+      <selection pane="topLeft" activeCell="R57" activeCellId="0" sqref="R57:S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
+      <c r="C4" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1"/>
+      <c r="D10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,21 +506,646 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1"/>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1"/>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1"/>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1"/>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1"/>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="7"/>
+    </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="2"/>
+      <c r="B29" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/webアプリ作成/Git使用手順.xlsx
+++ b/webアプリ作成/Git使用手順.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">◆初期設定</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t xml:space="preserve">　　　　　　　　　 メッセージを入力せず、エディタを終了 →　コミットを中止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※コミットメッセージの入力とエディタノ終了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１．最初の行にコミット メッセージを書きます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">２．esc を押して normal モードに戻ります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">３．:wq と入力して保存し、エディターを終了します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">４．enter を押して、通常の端末ウィンドウに戻ります。</t>
   </si>
   <si>
     <t xml:space="preserve">◆git commitの取り消し</t>
@@ -410,10 +425,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:AM51"/>
+  <dimension ref="B2:AM57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R57" activeCellId="0" sqref="R57:S57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH63" activeCellId="0" sqref="AH63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,13 +443,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -488,7 +503,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1"/>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -496,7 +511,7 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
@@ -562,7 +577,7 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1"/>
@@ -625,7 +640,7 @@
       <c r="Y20" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -762,216 +777,123 @@
       <c r="AF27" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="s">
-        <v>18</v>
+      <c r="E31" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="12"/>
+      <c r="E33" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="12"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="15" t="s">
+      <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="4"/>
+    </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="4"/>
+      <c r="D40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -1000,152 +922,270 @@
       <c r="AC41" s="14"/>
       <c r="AD41" s="14"/>
       <c r="AE41" s="14"/>
-      <c r="AF41" s="12"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="0" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="16" t="s">
         <v>29</v>
       </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="16" t="s">
+      <c r="D48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="4"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="12"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="7"/>
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/webアプリ作成/Git使用手順.xlsx
+++ b/webアプリ作成/Git使用手順.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="コミット・プッシュ手順" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="マージ手順" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">◆初期設定</t>
   </si>
@@ -134,6 +135,84 @@
   </si>
   <si>
     <t xml:space="preserve">$ git push -u origin ブランチ名      : originリポジトリの指定ブランチにpush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆参考文献</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">GithubでのWeb上からのマージの仕方3種とその使いどころ #GitHub - Qiita</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">◆ブランチの構成と役割</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▼ブランチ構成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正式リリース用のブランチ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本番環境で実際に使用される資産をアップロードする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開発環境用のブランチ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結合テストなどの実施に利用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このブランチから、各人が編集するローカルブランチを切る。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developブランチから切られた作業用ブランチ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▼各ブランチへのマージ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・develop→master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a merge commitを使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・topic→develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squash and mergeを使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※マージの種類とその説明については参考文献を参照。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆マージ手順</t>
   </si>
 </sst>
 </file>
@@ -143,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
@@ -170,6 +249,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -279,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,6 +431,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,8 +521,8 @@
   </sheetPr>
   <dimension ref="B2:AM57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH63" activeCellId="0" sqref="AH63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK10" activeCellId="0" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -777,27 +871,27 @@
       <c r="AF27" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1196,4 +1290,137 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:E29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="GithubでのWeb上からのマージの仕方3種とその使いどころ #GitHub - Qiita"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/webアプリ作成/Git使用手順.xlsx
+++ b/webアプリ作成/Git使用手順.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="コミット・プッシュ手順" sheetId="1" state="visible" r:id="rId2"/>
@@ -521,8 +521,8 @@
   </sheetPr>
   <dimension ref="B2:AM57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK10" activeCellId="0" sqref="AK10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1299,7 +1299,7 @@
   </sheetPr>
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
     </sheetView>
   </sheetViews>

--- a/webアプリ作成/Git使用手順.xlsx
+++ b/webアプリ作成/Git使用手順.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">◆初期設定</t>
   </si>
@@ -41,6 +41,15 @@
     <t xml:space="preserve">※認証のための初期設定？</t>
   </si>
   <si>
+    <t xml:space="preserve">◆WindowsであればPowerShell、Macであればターミナルに接続</t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆作業フォルダに移動</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ cd ファイルのフルパス</t>
+  </si>
+  <si>
     <t xml:space="preserve">◆変更ファイルをステージに追加</t>
   </si>
   <si>
@@ -140,25 +149,7 @@
     <t xml:space="preserve">◆参考文献</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">GithubでのWeb上からのマージの仕方3種とその使いどころ #GitHub - Qiita</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">GithubでのWeb上からのマージの仕方3種とその使いどころ #GitHub - Qiita </t>
   </si>
   <si>
     <t xml:space="preserve">◆ブランチの構成と役割</t>
@@ -275,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -328,6 +319,27 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -365,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,6 +410,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -406,7 +430,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,11 +438,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,10 +543,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:AM57"/>
+  <dimension ref="B2:AM63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="AR7" activeCellId="0" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -603,683 +627,737 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="4"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1"/>
-      <c r="D15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="7"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1"/>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1"/>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1"/>
+      <c r="D21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1"/>
+      <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1"/>
+      <c r="D26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="9" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="1" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="15"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D33" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="1" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="1" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="13" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="13" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="11"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="15" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="15"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="4"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="15"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
-      <c r="AE47" s="14"/>
-      <c r="AF47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="13" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="12"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="15" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="1" t="s">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="1" t="s">
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="16" t="s">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="4"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="15" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
-      <c r="AC57" s="6"/>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1306,114 +1384,114 @@
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>38</v>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="17" t="s">
-        <v>39</v>
+      <c r="C3" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>40</v>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>41</v>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
-        <v>42</v>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="s">
-        <v>43</v>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="s">
-        <v>44</v>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
-        <v>45</v>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0" t="s">
-        <v>46</v>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
-        <v>47</v>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
-        <v>48</v>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="s">
-        <v>49</v>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="0" t="s">
-        <v>50</v>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>51</v>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="s">
-        <v>52</v>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="18" t="s">
-        <v>53</v>
+      <c r="E22" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
-        <v>54</v>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="18" t="s">
-        <v>55</v>
+      <c r="E25" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="18"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="18" t="s">
-        <v>56</v>
+      <c r="D27" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="18"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>57</v>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="GithubでのWeb上からのマージの仕方3種とその使いどころ #GitHub - Qiita"/>
+    <hyperlink ref="C3" r:id="rId1" display="GithubでのWeb上からのマージの仕方3種とその使いどころ #GitHub - Qiita "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/webアプリ作成/Git使用手順.xlsx
+++ b/webアプリ作成/Git使用手順.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="コミット・プッシュ手順" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="マージ手順" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pull手順" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="コミット・プッシュ手順" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="マージ手順" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t xml:space="preserve">◆初期設定</t>
   </si>
@@ -144,6 +145,24 @@
   </si>
   <si>
     <t xml:space="preserve">$ git push -u origin ブランチ名      : originリポジトリの指定ブランチにpush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">◆pullコマンドで最新のリモート環境の状態を取得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ git pull     : 最新のリモート環境を取得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※git fetch（最新版の取得）を行った後にgit merge（最新版に自身の変更を追加）してくれるコマンド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">※git mergeのコメント編集画面の操作法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1．コメントを編集し、Escボタンを押す。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2．:wq!　で終了できる。</t>
   </si>
   <si>
     <t xml:space="preserve">◆参考文献</t>
@@ -377,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,6 +474,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,8 +568,8 @@
   </sheetPr>
   <dimension ref="B2:AM63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR7" activeCellId="0" sqref="AR7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W73" activeCellId="0" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1375,6 +1398,896 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:AM72"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1"/>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1"/>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1"/>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1"/>
+      <c r="D25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1"/>
+      <c r="D26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="15"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="15"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="15"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="10"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:E29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1385,108 +2298,108 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="20" t="s">
-        <v>42</v>
+      <c r="C3" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="21" t="s">
-        <v>56</v>
+      <c r="E22" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="21" t="s">
-        <v>58</v>
+      <c r="E25" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="21" t="s">
-        <v>59</v>
+      <c r="D27" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
